--- a/biology/Zoologie/Cissia/Cissia.xlsx
+++ b/biology/Zoologie/Cissia/Cissia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Cissia  est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae, de la tribu des satyrini, de la sous-tribu des Euptychiina.
@@ -512,13 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Cissia a été décrit par l'entomologiste Henry Doubleday (1808-1875) en 1848[1]
-L'espèce type est Papilio clarissa (Cramer), en fait aujourd'hui Cissia penelope (Fabricius, 1775).
-Synonymie
-Argyreuptychia (W.Forster, 1964) [2]
-Vareuptychia (W.Forster, 1964) [3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Cissia a été décrit par l'entomologiste Henry Doubleday (1808-1875) en 1848
+L'espèce type est Papilio clarissa (Cramer), en fait aujourd'hui Cissia penelope (Fabricius, 1775).</t>
         </is>
       </c>
     </row>
@@ -543,23 +554,62 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyreuptychia (W.Forster, 1964) 
+Vareuptychia (W.Forster, 1964) </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cissia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces[4]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces:
 Cissia cleophes (Godman &amp; Salvin, 1889); présent au Mexique
 Cissia confusa (Staudinger, 1887); présent au Mexique, à Panama, en Colombie et en Équateur
 Cissia joyceae Singer, DeVries &amp; Ehrlich, 1983; au Costa Rica
 Cissia labe (Butler, 1870); présent au Mexique, à Panama et en Équateur
-Cissia lesbia (Staudinger, [1886]); présent au Brésil et en Guyane,
+Cissia lesbia (Staudinger, ); présent au Brésil et en Guyane,
 Cissia maripa Brévignon, 2005;  en Guyane
 Cissia moneta (Weymer, 1911); présent en Guyane
 Cissia myncea (Cramer, 1780); présent en Guyane, au Surinam, à Trinité-et-Tobago et au Brésil
 Cissia palladia (Butler, 1867); présent au Nicaragua, en Équateur, à Trinité-et-Tobago et au Brésil
 Cissia penelope (Fabricius, 1775); présent en Guyane, au Surinam, à Trinité-et-Tobago et au Brésil
-Cissia pompilia (C. &amp; R. Felder, [1867]); présent au Mexique, au Honduras, en Colombie et au Venezuela.
+Cissia pompilia (C. &amp; R. Felder, ); présent au Mexique, au Honduras, en Colombie et au Venezuela.
 Cissia proba (Weymer, 1911); en Bolivie et au Pérou
 Cissia pseudoconfusa Singer, DeVries &amp; Ehrlich, 1983; présent au Mexique, à Panama et au Costa Rica
 Cissia similis (Butler, 1867); présent au Mexique, en Colombie et au Guatemala
